--- a/target/classes/com/Excelsheets/cryptaSearch.xlsx
+++ b/target/classes/com/Excelsheets/cryptaSearch.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C51E9028-D571-407A-94E2-1664FC9355AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2AFD5732-D695-4625-A01C-FAAF377F2747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="2685" windowWidth="24300" windowHeight="13800" xr2:uid="{6365BC91-FCCA-422C-B31A-5C1AF3F0B373}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Search Results</t>
+    <t>Search</t>
   </si>
 </sst>
 </file>
@@ -39,18 +39,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -67,7 +61,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,15 +376,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2795BD-01E4-4D5D-9F25-212CA0A6BCF8}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="166.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -401,6 +395,54 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/com/Excelsheets/cryptaSearch.xlsx
+++ b/target/classes/com/Excelsheets/cryptaSearch.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2AFD5732-D695-4625-A01C-FAAF377F2747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{285D2695-FDA7-487E-B434-1439EEE98111}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="24300" windowHeight="13800" xr2:uid="{6365BC91-FCCA-422C-B31A-5C1AF3F0B373}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="24300" windowHeight="13800" xr2:uid="{6365BC91-FCCA-422C-B31A-5C1AF3F0B373}"/>
   </bookViews>
   <sheets>
     <sheet name="search" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,15 +21,184 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>Search</t>
+  </si>
+  <si>
+    <t>I confirm that this report has not been accepted for any degree and is not currently submitted in candidature of any degree.</t>
+  </si>
+  <si>
+    <t>Provide service on-site at client’s largest global DC campus for health and beauty products</t>
+  </si>
+  <si>
+    <t>DB Schenker supports Automotive customers including their suppliers and customers to establish most efficient logistics services accross the world and for all their Automotive products.</t>
+  </si>
+  <si>
+    <t>The Three Diseases Fund has ended mid-2013 and its donors committed to continued support for health needs in Myanmar through a second phase (2012- 2016) of funding, the Three Millennium Development Goal Fund (3MDG fund).</t>
+  </si>
+  <si>
+    <t>logistics Cluster’s partners have initially requested an interagency storage space in Dohuk and Erbil, in the Kurdistan Region of Iraq, where a major gap was identified.</t>
+  </si>
+  <si>
+    <t>The information gathered herein is classified as For Official Use Only (FOUO) and should be handled as sensitive information not to be disclosed.</t>
+  </si>
+  <si>
+    <t>Warehouse: The place where the goods, equipment and inventories are stored and protected.</t>
+  </si>
+  <si>
+    <t>In today’s fiercely competitive marketplace, companies have an insatiable need for information. Key to maintaining a competitive advantage is understanding what your customers want, what they need and the manner in which they want to receive your products or services.</t>
+  </si>
+  <si>
+    <t>Engineering order fulfillment systems for distribution operations includes the consideration of many factors.</t>
+  </si>
+  <si>
+    <t>Warehouses are a significant part of the Federal Government’s vast and diverse real property inventory.</t>
+  </si>
+  <si>
+    <t>In the realm of technology, innovation takes on many forms. From groundbreaking, disruptive innovation to incremental improvements of existing technology, successful IT innovation requires disciplined management and creative foresight to transform novel ideas into business value and turn business value into bottom line profit.</t>
+  </si>
+  <si>
+    <t>HOW WAREHOUSING OPERATIONS AND IT PROFESSIONALS ARERESPONDING TO THE SIGNIFICANT CHANGES AND CHALLENGES FACING THE INDUSTRY OVER THE NEXT FIVE YEARS.</t>
+  </si>
+  <si>
+    <t>Public Service - Business Phoenix Award: Cox Conserves Annual Sustainability Survey Edelman on behalf of Cox Enterprises</t>
+  </si>
+  <si>
+    <t>Following the Declaration of the General Ruling in the 2010 State Wage Case (matter numbers B/2010/20 and B/2010/21), the General Stores, Warehousing and Distribution Award - State 2002 is hereby reprinted, pursuant to s. 698 of the Industrial Relations Act 1999.</t>
+  </si>
+  <si>
+    <t>No employee aged 21 or more shall be paid less than the minimum adult award wage unless otherwise provided by this clause.</t>
+  </si>
+  <si>
+    <t>This WA Award Summary is a summary of the state Shop and Warehouse (Wholesale and Retail Establishments) Award and does not include all obligations required by the award.</t>
+  </si>
+  <si>
+    <t>The best way to get general pay and conditions advice is to register for My account on our website. Once you have registered you can ask questions and save replies, view tailored information relevant to you and save pages, pay rates and awards.</t>
+  </si>
+  <si>
+    <t>Public reporting burden for this collection of information is estimated to average 1 hour per response, including the time for reviewing instruction, searching existing data sources, gathering and maintaining the data needed, and completing and reviewing the collection of information.</t>
+  </si>
+  <si>
+    <t>Many companies have business processes that could use streamlining. In some cases the processes are too complex, requiring special training to complete the multitude of constituent steps.</t>
+  </si>
+  <si>
+    <t>Recognizing that improvements in productivity can be realized through innovation and application of the proper equipment at all levels of materials handling, the twenty short cases that follow have been developed for classroom use.</t>
+  </si>
+  <si>
+    <t>What are the steps in the process of distribution channel design? Discuss the role of logistics variable in decision as to where to locate plant or warehouse.</t>
+  </si>
+  <si>
+    <t>Aqua Logistics provides export, import and extensive warehousing facilities for large quantum of pharmaceutical products</t>
+  </si>
+  <si>
+    <t>Scott B. Keller is a professor of logistics and marketing at the University of West Florida. He received his Ph.D. from the University of Arkansas and has been on faculty at Penn State and Michigan State.</t>
+  </si>
+  <si>
+    <t>Solvo's WMS is an application suite designed to optimize warehouse operations. Solvo's solutions manage the entire warehouse operation cycle in a real time mode.</t>
+  </si>
+  <si>
+    <t>Warehouse Management, Material Handling, Storage and Logistics Operation, Leading to Diploma – Postgraduate in Warehouse Management, Material Handling, Storage and Logistics Operation, Accumulating to Postgraduate Diploma, Progressing to MA, MBA, MSc</t>
+  </si>
+  <si>
+    <t>Our mission is to create and deliver high-quality and innovative products, technical solutions and services that contribute to our customers' competitiveness and create value for our employees and shareholders. To achieve this mission, we have to set ourselves ambitious quality objectives.</t>
+  </si>
+  <si>
+    <t>In today’s fierce competitive global markets, customers are demanding adjustable lot sizes, shorter lead times, higher quality and flexibility; in short, they want it all. In order to stay competitive in the market, companies need to attain both customer satisfaction and cost reduction in production operations. Material Handling Systems (MHS) is the place to accomplish this goal, since they have a direct impact on production. Therefore, the aim of this study was to design an in-house MHS that could be efficient for the production it serves.</t>
+  </si>
+  <si>
+    <t>The Theme of the thesis is the investigation of possibility for optimizing warehousing operations through the change of material flow and space utilization. Influence on the change on financial results of the company is also considered.</t>
+  </si>
+  <si>
+    <t>The purpose of this paper is to present an applicable approach for the valuation of in-plant logistics efficiency. Therefore, we developed a time-based efficiency concept that considers all relevant time losses when executing production logistics processes. The occurring delays are captured in real-time using modem auto-ID-technologies. For the valuation and improvement of in-plant logistics efficiency, we propose to use circulation modelling to investigate the cause-effect relations in the production system in advance.</t>
+  </si>
+  <si>
+    <t>The material in this work is copyrighted. Copying and/or transmitting portions or all of this work without permission may be a violation of applicable law. require.</t>
+  </si>
+  <si>
+    <t>This workshop deliberated on how the region can move forward in implementing financing and trade systems for national, regional and international markets. It looked at the current service providers and their successes.</t>
+  </si>
+  <si>
+    <t>The designations employed and the presentation of material in this information product do not imply the expression of any opinion whatsoever on the part of the Food and Agriculture Organization of the United Nations (FAO) concerning the legal or development status of any country, territory, city or area or of its authorities, or concerning the delimitation of its frontiers or boundaries.</t>
+  </si>
+  <si>
+    <t>The designations employed and the presentation of the material in this publication do not imply the expression of any opinion whatsoever on the part of the Secretariat of the United Nations concerning the legal status of any country, territory, city or area, or of its authorities, or concerning the delimitation of its frontiers or boundaries.</t>
+  </si>
+  <si>
+    <t>This Module is designed for Cereal Traders who are or intending to venture into agricultural output marketing which will necessitates sufficient knowledge in warehouse receipting and collateral management.</t>
+  </si>
+  <si>
+    <t>Information assets are immensely valuable to any enterprise, and because of this, these assets must be properly stored and readily accessible when they are needed.</t>
+  </si>
+  <si>
+    <t>Designations used by companies to distinguish their products are often claimed as trademarks. In all instances where John Wiley and Sons, Inc., is aware of a claim, the product names appear in initial capital or ALL CAPITAL LETTERS.</t>
+  </si>
+  <si>
+    <t>These are activities and policies that will specifically make you reap tangible benefits. They are specific steps you can take that promise or can deliver a financial upside through greater efficiencies and savings.</t>
+  </si>
+  <si>
+    <t>Limit of Liability/Disclaimer of Warranty: The publisher and the author make no representations or warranties with respect to the accuracy or completeness of the contents of this work and specifi cally disclaim all warranties, including without limitation warranties of fi tness for a particular purpose.</t>
+  </si>
+  <si>
+    <t>Warehouse operations can present a wide variety of potential hazards for the worker.</t>
+  </si>
+  <si>
+    <t>Founded in 2004 as a division of Navis, (acquired by Zebra: Nasdaq ZBRA) Spun Off December 2007 Quality investors: NEA and Emergence Capital Seasoned executive team</t>
+  </si>
+  <si>
+    <t>Preventing and reducing accidents at work should be one of the forefront issues for anyone who is responsible for employees and non-employees on their premise.</t>
+  </si>
+  <si>
+    <t>This is a free-to-download, web-friendly version of HSG76 (Second edition, published 2007). This version has been adapted for online use from HSE’s current printed version.</t>
+  </si>
+  <si>
+    <t>It is becoming more common to apply the concepts of productivity and working conditions to warehouses. This is why safety standards must become stricter and more rigorously applied to handling procedures related to racking.</t>
+  </si>
+  <si>
+    <t>The jail complies with all applicable state and federal regulations regarding prescribing, dispensing, administering, and procuring pharmaceuticals.</t>
+  </si>
+  <si>
+    <t>The purpose of this document is to detail down the specification for Hotel, Club and Restaurant (HCR) barcode readiness as per the project requirements.</t>
+  </si>
+  <si>
+    <t>The objective of this procedure is to describe the activities involved in making the inventory take at the warehouse.</t>
+  </si>
+  <si>
+    <t>In the course of providing patient care, University Health Network manages health information using multiple information systems.</t>
+  </si>
+  <si>
+    <t>Logistics Cluster’s partners have initially requested an interagency storage space in Dohuk and Erbil, in the Kurdistan Region of Iraq, where a major gap was identified.</t>
+  </si>
+  <si>
+    <t>IIMM is pleased to introduce a foundation course on Warehouse Management. Targeted at both fresh graduates and working professionals, this programme will provide a solid grounding in both the theoretical and practical aspects of this subject.</t>
+  </si>
+  <si>
+    <t>No part of this publication may be reproduced or transmitted in any form or for any purpose without the express permission of SAP AG. The information contained herein may be changed without prior notice.</t>
+  </si>
+  <si>
+    <t>Traditionally warehouse management was considered a non-value adding activity and in fact a cost-adding necessary evil. Warehouse management has seen a paradigm shift in its focus from that perspective to provide the right product in the right place at the right time with right quantity.</t>
+  </si>
+  <si>
+    <t>It gives me immense pleasure to present the Warehouse Manual for Pharmaceutical Supply Chain in the State of Gujarat. This manual represents the collaborative effort of Gujrat Medical Service Corporation Ltd.</t>
+  </si>
+  <si>
+    <t>Storage/warehouse facilities are locations where food and non-food commodities are stored pending onward movement.</t>
+  </si>
+  <si>
+    <t>We eat a variety of food in our daily life. Some of us may take rice, while others may take chapati or roti as our main food.</t>
+  </si>
+  <si>
+    <t>he main destructible capital invested in a warehouse is its inventory. Weakness in Inventory Management results in direct capital destruction. In today highly competitive and open market environment, the profit margin has narrowed drastically, the ability to manage warehouse cost effectively is paramount.</t>
+  </si>
+  <si>
+    <t>Stores products (raw materials, parts, goods in process, finished goods at and between point of origin and point of consumption</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -59,9 +228,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,28 +555,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2795BD-01E4-4D5D-9F25-212CA0A6BCF8}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:A57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A2:A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="166.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="210.26953125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25"/>
@@ -443,6 +644,11 @@
     <row r="50" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/com/Excelsheets/cryptaSearch.xlsx
+++ b/target/classes/com/Excelsheets/cryptaSearch.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="57">
   <si>
     <t>Search</t>
   </si>
@@ -228,7 +228,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -561,11 +563,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="210.26953125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="255.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="11">
+      <c r="A1" t="s" s="13">
         <v>0</v>
       </c>
     </row>
@@ -599,56 +601,256 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/com/Excelsheets/cryptaSearch.xlsx
+++ b/target/classes/com/Excelsheets/cryptaSearch.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="57">
   <si>
     <t>Search</t>
   </si>
@@ -228,7 +228,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -567,7 +571,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="13">
+      <c r="A1" t="s" s="17">
         <v>0</v>
       </c>
     </row>
